--- a/shop_emotion/신제품보만 AF1270W_positive.xlsx
+++ b/shop_emotion/신제품보만 AF1270W_positive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>확률</t>
+          <t>평점</t>
         </is>
       </c>
     </row>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>98.76973628997803</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>98.75850677490234</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['거실용으로 구입 3단 바람 조절로 에어컨 사용시 사용중이에요. 날개 부분은 작지만 바람은 셉니다.손잡이가 없어서 이동시 좀 불편해요\n거실용으로 구입 3단 바람 조절로 에어컨 사용시 사용중이에요. 날개 부분은 작지만 바람은 셉니다.\n손잡이가 없어서 이동시 좀 불편해요']</t>
+          <t>['성능은 좋은데 헤드가 1단에서 조금 떨어서 소음이 있는데 가까이서 들으면 들리고 멀리서는 안들려요\n성능은 좋은데 헤드가 1단에서 조금 떨어서 소음이 있는데 가까이서 들으면 들리고 멀리서는 안들려요']</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71.73392772674561</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['높낮이 조절이 앉되요조금 저속에서 소음 있음그래도 저렴하며 시원함\n높낮이 조절이 앉되요\n조금 저속에서 소음 있음\n그래도 저렴하며 시원함']</t>
+          <t>['거실용으로 구입 3단 바람 조절로 에어컨 사용시 사용중이에요. 날개 부분은 작지만 바람은 셉니다.손잡이가 없어서 이동시 좀 불편해요\n거실용으로 구입 3단 바람 조절로 에어컨 사용시 사용중이에요. 날개 부분은 작지만 바람은 셉니다.\n손잡이가 없어서 이동시 좀 불편해요']</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>80.47724366188049</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['이번 여름에 보만에서 선풍기 두대 구입했어요 사이즈가 앙증맞아요\n이번 여름에 보만에서 선풍기 두대 구입했어요 사이즈가 앙증맞아요']</t>
+          <t>['높낮이 조절이 앉되요조금 저속에서 소음 있음그래도 저렴하며 시원함\n높낮이 조절이 앉되요\n조금 저속에서 소음 있음\n그래도 저렴하며 시원함']</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>84.59726572036743</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['디자인 깔끔하고 성능 괜찮아요아이방에 딱 입니다\n디자인 깔끔하고 성능 괜찮아요\n아이방에 딱 입니다']</t>
+          <t>['이번 여름에 보만에서 선풍기 두대 구입했어요 사이즈가 앙증맞아요\n이번 여름에 보만에서 선풍기 두대 구입했어요 사이즈가 앙증맞아요']</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>99.35735464096069</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['시원하고 깔끔해요 조립이 조금 귀찮앗지만\n시원하고 깔끔해요 조립이 조금 귀찮앗지만']</t>
+          <t>['디자인 깔끔하고 성능 괜찮아요아이방에 딱 입니다\n디자인 깔끔하고 성능 괜찮아요\n아이방에 딱 입니다']</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>99.81684684753418</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['바람좋고 크기고 아주 딱 맘에 들어요~^^\n바람좋고 크기고 아주 딱 맘에 들어요~^^']</t>
+          <t>['시원하고 깔끔해요 조립이 조금 귀찮앗지만\n시원하고 깔끔해요 조립이 조금 귀찮앗지만']</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>98.3288586139679</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['배송빠르고 좋아요.잘 사용할게요\n배송빠르고 좋아요.\n잘 사용할게요']</t>
+          <t>['바람좋고 크기고 아주 딱 맘에 들어요~^^\n바람좋고 크기고 아주 딱 맘에 들어요~^^']</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>97.59594798088074</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['층고 높은 집에는 정말 딱이에요!\n층고 높은 집에는 정말 딱이에요!']</t>
+          <t>['배송빠르고 좋아요.잘 사용할게요\n배송빠르고 좋아요.\n잘 사용할게요']</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>85.45855283737183</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['무난하게 쓰기 좋아요~ 제품 조립 설명이 더 자세하게 되어있으면 좋겠네요!\n무난하게 쓰기 좋아요~ 제품 조립 설명이 더 자세하게 되어있으면 좋겠네요!']</t>
+          <t>['층고 높은 집에는 정말 딱이에요!\n층고 높은 집에는 정말 딱이에요!']</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99.72460865974426</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['아주 좋아요.잘 쓰겠습니다.\n아주 좋아요.\n잘 쓰겠습니다.']</t>
+          <t>['무난하게 쓰기 좋아요~ 제품 조립 설명이 더 자세하게 되어있으면 좋겠네요!\n무난하게 쓰기 좋아요~ 제품 조립 설명이 더 자세하게 되어있으면 좋겠네요!']</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>99.25042390823364</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['일반선풍기보다 팬사이즈가 작은 편이지만 엄청 시원합니당(전 팬이 작은거 때문에 샀지만요)\n일반선풍기보다 팬사이즈가 작은 편이지만 엄청 시원합니당(전 팬이 작은거 때문에 샀지만요)']</t>
+          <t>['아주 좋아요.잘 쓰겠습니다.\n아주 좋아요.\n잘 쓰겠습니다.']</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>99.69722628593445</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>['일반선풍기보다 팬사이즈가 작은 편이지만 엄청 시원합니당(전 팬이 작은거 때문에 샀지만요)\n일반선풍기보다 팬사이즈가 작은 편']</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>['배송도 빠르고 시원해요\n배송도 빠르고 시원해요']</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>98.48816990852356</v>
+      <c r="C16" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
